--- a/2d adventure stat-heavy choice-based card game/Dev log.xlsx
+++ b/2d adventure stat-heavy choice-based card game/Dev log.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9885"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Basic parts" sheetId="2" r:id="rId1"/>
+    <sheet name="Short term goals" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
-  <si>
-    <t>Parts needed</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>Numerical item/character stats</t>
   </si>
@@ -84,6 +82,57 @@
   </si>
   <si>
     <t>Shitty</t>
+  </si>
+  <si>
+    <t>Short term goals</t>
+  </si>
+  <si>
+    <t>Rewrite world map</t>
+  </si>
+  <si>
+    <t>Finish situations</t>
+  </si>
+  <si>
+    <t>Implement filtration by requirement</t>
+  </si>
+  <si>
+    <t>Link the requirement system to the turn system</t>
+  </si>
+  <si>
+    <t>Start simulation system</t>
+  </si>
+  <si>
+    <t>Link the simulation system to the turn system</t>
+  </si>
+  <si>
+    <t>Save/load system (json)</t>
+  </si>
+  <si>
+    <t>Start save/load system</t>
+  </si>
+  <si>
+    <t>Implement save/load for items</t>
+  </si>
+  <si>
+    <t>Implement save/load for situations</t>
+  </si>
+  <si>
+    <t>Implement save/load for world map</t>
+  </si>
+  <si>
+    <t>Implement save/load for characters</t>
+  </si>
+  <si>
+    <t>Die rolls</t>
+  </si>
+  <si>
+    <t>Rewrite requirements</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Finish items</t>
   </si>
 </sst>
 </file>
@@ -155,12 +204,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,53 +491,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54.85546875" customWidth="1"/>
-    <col min="2" max="4" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -495,10 +550,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
         <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -508,8 +563,8 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
+      <c r="C7" s="4">
+        <v>43108</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -519,8 +574,8 @@
       <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
-        <v>15</v>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -528,48 +583,178 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
-        <v>15</v>
+      <c r="C10" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4">
+        <v>43104</v>
+      </c>
+      <c r="D14" s="4">
+        <v>43104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="54.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4">
+        <v>43107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4">
+        <v>43107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4">
+        <v>43104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
